--- a/ProjectJournal/Scrum Report/Task board/CMPE-202-Phoenix-Sprint.xlsx
+++ b/ProjectJournal/Scrum Report/Task board/CMPE-202-Phoenix-Sprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ruchika Ms\CMPE202\group project\Zombies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFCE74D-8991-4F8D-BDF1-1A35199857AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF098BCE-AB70-4625-9785-29673F44BD1F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6618" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
   <si>
     <t>Week #1 (10 hrs / week)</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Design Business Logic</t>
   </si>
   <si>
-    <t>Harini Balakrishnan</t>
-  </si>
-  <si>
     <t>Design User Interface</t>
   </si>
   <si>
@@ -113,15 +110,6 @@
   </si>
   <si>
     <t>Write Documentation</t>
-  </si>
-  <si>
-    <t>Ravali Nagabandi</t>
-  </si>
-  <si>
-    <t>Rupal Martin</t>
-  </si>
-  <si>
-    <t>Supreetha Ganapathi</t>
   </si>
   <si>
     <t>Merge the controller and test the REST services with application flow</t>
@@ -628,33 +616,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,6 +626,32 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1916,8 +1904,8 @@
   </sheetPr>
   <dimension ref="A1:S1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1935,36 +1923,36 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="55" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="57"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="67"/>
     </row>
     <row r="2" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2014,7 +2002,7 @@
       <c r="A3" s="60"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
-      <c r="D3" s="63"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="7">
         <v>43296</v>
       </c>
@@ -2204,14 +2192,14 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="12.6" x14ac:dyDescent="0.45">
-      <c r="A6" s="66" t="s">
-        <v>39</v>
+      <c r="A6" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="16">
         <v>10</v>
@@ -2250,10 +2238,10 @@
     <row r="7" spans="1:19" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A7" s="60"/>
       <c r="B7" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" s="23">
         <v>2</v>
@@ -2291,11 +2279,11 @@
     </row>
     <row r="8" spans="1:19" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A8" s="60"/>
-      <c r="B8" s="65" t="s">
-        <v>37</v>
+      <c r="B8" s="55" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8" s="23">
         <v>15</v>
@@ -2333,11 +2321,11 @@
     </row>
     <row r="9" spans="1:19" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A9" s="60"/>
-      <c r="B9" s="65" t="s">
-        <v>38</v>
+      <c r="B9" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" s="23">
         <v>3</v>
@@ -2376,10 +2364,10 @@
     <row r="10" spans="1:19" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A10" s="60"/>
       <c r="B10" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" s="23">
         <v>2</v>
@@ -2418,10 +2406,10 @@
     <row r="11" spans="1:19" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A11" s="60"/>
       <c r="B11" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" s="23">
         <v>5</v>
@@ -2460,10 +2448,10 @@
     <row r="12" spans="1:19" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A12" s="61"/>
       <c r="B12" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="23">
         <v>3</v>
@@ -2500,14 +2488,14 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="A13" s="67" t="s">
-        <v>40</v>
+      <c r="A13" s="63" t="s">
+        <v>36</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="69" t="s">
-        <v>44</v>
+      <c r="C13" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="D13" s="16">
         <v>10</v>
@@ -2546,10 +2534,10 @@
     <row r="14" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A14" s="60"/>
       <c r="B14" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="C14" s="69" t="s">
-        <v>44</v>
+      <c r="C14" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="23">
         <v>2</v>
@@ -2587,11 +2575,11 @@
     </row>
     <row r="15" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A15" s="60"/>
-      <c r="B15" s="65" t="s">
-        <v>37</v>
+      <c r="B15" s="55" t="s">
+        <v>33</v>
       </c>
-      <c r="C15" s="69" t="s">
-        <v>44</v>
+      <c r="C15" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="D15" s="23">
         <v>15</v>
@@ -2629,11 +2617,11 @@
     </row>
     <row r="16" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A16" s="60"/>
-      <c r="B16" s="65" t="s">
-        <v>38</v>
+      <c r="B16" s="55" t="s">
+        <v>34</v>
       </c>
-      <c r="C16" s="69" t="s">
-        <v>44</v>
+      <c r="C16" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="23">
         <v>3</v>
@@ -2672,10 +2660,10 @@
     <row r="17" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A17" s="60"/>
       <c r="B17" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="C17" s="69" t="s">
-        <v>44</v>
+      <c r="C17" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="D17" s="23">
         <v>2</v>
@@ -2714,10 +2702,10 @@
     <row r="18" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A18" s="60"/>
       <c r="B18" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
-      <c r="C18" s="69" t="s">
-        <v>44</v>
+      <c r="C18" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="D18" s="23">
         <v>5</v>
@@ -2756,10 +2744,10 @@
     <row r="19" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A19" s="61"/>
       <c r="B19" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="C19" s="69" t="s">
-        <v>44</v>
+      <c r="C19" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="23">
         <v>3</v>
@@ -2796,14 +2784,14 @@
       <c r="R19" s="34"/>
     </row>
     <row r="20" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="A20" s="67" t="s">
-        <v>42</v>
+      <c r="A20" s="63" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="68" t="s">
-        <v>41</v>
+      <c r="C20" s="56" t="s">
+        <v>37</v>
       </c>
       <c r="D20" s="16">
         <v>5</v>
@@ -2842,10 +2830,10 @@
     <row r="21" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A21" s="60"/>
       <c r="B21" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="C21" s="68" t="s">
-        <v>41</v>
+      <c r="C21" s="56" t="s">
+        <v>37</v>
       </c>
       <c r="D21" s="23">
         <v>3</v>
@@ -2883,11 +2871,11 @@
     </row>
     <row r="22" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A22" s="60"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="56" t="s">
         <v>37</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>41</v>
       </c>
       <c r="D22" s="23">
         <v>10</v>
@@ -2925,11 +2913,11 @@
     </row>
     <row r="23" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A23" s="60"/>
-      <c r="B23" s="65" t="s">
-        <v>38</v>
+      <c r="B23" s="55" t="s">
+        <v>34</v>
       </c>
-      <c r="C23" s="68" t="s">
-        <v>41</v>
+      <c r="C23" s="56" t="s">
+        <v>37</v>
       </c>
       <c r="D23" s="23">
         <v>8</v>
@@ -2968,10 +2956,10 @@
     <row r="24" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A24" s="60"/>
       <c r="B24" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="C24" s="68" t="s">
-        <v>41</v>
+      <c r="C24" s="56" t="s">
+        <v>37</v>
       </c>
       <c r="D24" s="23">
         <v>6</v>
@@ -3010,10 +2998,10 @@
     <row r="25" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A25" s="60"/>
       <c r="B25" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
-      <c r="C25" s="68" t="s">
-        <v>41</v>
+      <c r="C25" s="56" t="s">
+        <v>37</v>
       </c>
       <c r="D25" s="23">
         <v>2</v>
@@ -3052,10 +3040,10 @@
     <row r="26" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A26" s="61"/>
       <c r="B26" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="C26" s="68" t="s">
-        <v>41</v>
+      <c r="C26" s="56" t="s">
+        <v>37</v>
       </c>
       <c r="D26" s="23">
         <v>6</v>
@@ -3092,14 +3080,14 @@
       <c r="R26" s="34"/>
     </row>
     <row r="27" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="A27" s="66" t="s">
-        <v>45</v>
+      <c r="A27" s="64" t="s">
+        <v>41</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="70" t="s">
-        <v>46</v>
+      <c r="C27" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="D27" s="16">
         <v>5</v>
@@ -3139,10 +3127,10 @@
     <row r="28" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A28" s="60"/>
       <c r="B28" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="C28" s="70" t="s">
-        <v>46</v>
+      <c r="C28" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="D28" s="23">
         <v>3</v>
@@ -3181,11 +3169,11 @@
     </row>
     <row r="29" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A29" s="60"/>
-      <c r="B29" s="65" t="s">
-        <v>37</v>
+      <c r="B29" s="55" t="s">
+        <v>33</v>
       </c>
-      <c r="C29" s="70" t="s">
-        <v>46</v>
+      <c r="C29" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="23">
         <v>10</v>
@@ -3224,11 +3212,11 @@
     </row>
     <row r="30" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A30" s="60"/>
-      <c r="B30" s="65" t="s">
-        <v>38</v>
+      <c r="B30" s="55" t="s">
+        <v>34</v>
       </c>
-      <c r="C30" s="70" t="s">
-        <v>46</v>
+      <c r="C30" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="D30" s="23">
         <v>8</v>
@@ -3268,10 +3256,10 @@
     <row r="31" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A31" s="60"/>
       <c r="B31" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="C31" s="70" t="s">
-        <v>46</v>
+      <c r="C31" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="D31" s="23">
         <v>6</v>
@@ -3311,10 +3299,10 @@
     <row r="32" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A32" s="60"/>
       <c r="B32" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
-      <c r="C32" s="70" t="s">
-        <v>46</v>
+      <c r="C32" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="D32" s="23">
         <v>2</v>
@@ -3354,10 +3342,10 @@
     <row r="33" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A33" s="61"/>
       <c r="B33" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="C33" s="70" t="s">
-        <v>46</v>
+      <c r="C33" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="D33" s="23">
         <v>6</v>
@@ -3395,8 +3383,8 @@
       <c r="S33" s="41"/>
     </row>
     <row r="34" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="A34" s="64" t="s">
-        <v>31</v>
+      <c r="A34" s="59" t="s">
+        <v>27</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -3457,8 +3445,8 @@
       <c r="R36" s="34"/>
     </row>
     <row r="37" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="A37" s="64" t="s">
-        <v>32</v>
+      <c r="A37" s="59" t="s">
+        <v>28</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -3610,7 +3598,7 @@
     </row>
     <row r="45" spans="1:19" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A45" s="46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B45" s="47"/>
       <c r="C45" s="45"/>
@@ -3632,10 +3620,10 @@
     </row>
     <row r="46" spans="1:19" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A46" s="48" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="45"/>
@@ -3656,10 +3644,10 @@
     </row>
     <row r="47" spans="1:19" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A47" s="48" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
@@ -3680,10 +3668,10 @@
     </row>
     <row r="48" spans="1:19" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A48" s="48" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C48" s="45"/>
       <c r="D48" s="45"/>
@@ -3704,10 +3692,10 @@
     </row>
     <row r="49" spans="1:18" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A49" s="48" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
@@ -3748,10 +3736,10 @@
     </row>
     <row r="51" spans="1:18" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A51" s="52" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C51" s="45"/>
       <c r="D51" s="45"/>
@@ -20890,6 +20878,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A13:A19"/>
@@ -20897,11 +20890,6 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A27:A33"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A34:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20914,7 +20902,7 @@
   </sheetPr>
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/ProjectJournal/Scrum Report/Task board/CMPE-202-Phoenix-Sprint.xlsx
+++ b/ProjectJournal/Scrum Report/Task board/CMPE-202-Phoenix-Sprint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ruchika Ms\CMPE202\group project\Zombies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF098BCE-AB70-4625-9785-29673F44BD1F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADD3178-8D0F-4D0E-8442-CB1243A2D312}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1905,7 +1905,7 @@
   <dimension ref="A1:S1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
